--- a/db/东方M-1漫才统计表.xlsx
+++ b/db/东方M-1漫才统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\东JO共荣\东方\M-1\新建文件夹\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C745D3B6-104A-42F8-949A-CEEB6E2BD476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A52CE-606D-4D75-932A-72FD8406AA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4F54570-192A-490C-A976-F5082225062F}"/>
   </bookViews>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初赛中的积分排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无PV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -546,6 +542,10 @@
   </si>
   <si>
     <t>5（东方铃奈庵34话）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +937,7 @@
     <col min="9" max="10" width="35.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="5.25" style="1"/>
   </cols>
   <sheetData>
@@ -958,19 +958,19 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -979,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -987,19 +987,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>1935</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1">
         <v>6</v>
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
@@ -1028,19 +1028,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>6613</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1">
         <v>4</v>
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
@@ -1069,10 +1069,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>8585</v>
@@ -1099,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="1">
         <v>3</v>
@@ -1110,22 +1110,22 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>632</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" s="1">
         <v>4</v>
@@ -1151,16 +1151,16 @@
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>2703</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
@@ -1181,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
         <v>5</v>
@@ -1192,16 +1192,16 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>5140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1222,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>3102</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M8" s="1">
         <v>2</v>
@@ -1274,16 +1274,16 @@
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>1125</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M9" s="1">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>21098</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="1">
         <v>6</v>
@@ -1345,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10" s="1">
         <v>4</v>
@@ -1356,16 +1356,16 @@
         <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11" s="1">
         <v>5</v>
@@ -1397,10 +1397,10 @@
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="1">
         <v>17394</v>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
@@ -1438,10 +1438,10 @@
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D13" s="1">
         <v>703</v>
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13" s="1">
         <v>2</v>
@@ -1479,22 +1479,22 @@
         <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1">
         <v>1032</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>18</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14" s="1">
         <v>2</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14" s="1">
         <v>3</v>
@@ -1520,10 +1520,10 @@
         <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>2939</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M15" s="1">
         <v>4</v>
@@ -1561,16 +1561,16 @@
         <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1">
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="1">
         <v>5</v>
@@ -1602,10 +1602,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="1">
         <v>6900</v>
@@ -1632,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -1643,10 +1643,10 @@
         <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>543</v>
@@ -1684,10 +1684,10 @@
         <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="1">
         <v>3530</v>
@@ -1696,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1725,10 +1725,10 @@
         <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <v>27526</v>
@@ -1766,10 +1766,10 @@
         <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="1">
         <v>13023</v>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1807,10 +1807,10 @@
         <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="1">
         <v>233</v>
@@ -1819,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -1848,19 +1848,19 @@
         <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D23" s="1">
         <v>1044</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
@@ -1872,7 +1872,7 @@
         <v>61</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K23" s="1">
         <v>4</v>
@@ -1889,19 +1889,19 @@
         <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1">
         <v>9937</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" s="1">
         <v>11</v>
@@ -1930,10 +1930,10 @@
         <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D25" s="1">
         <v>2810</v>
@@ -1971,10 +1971,10 @@
         <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>1939</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G26" s="1">
         <v>6</v>
@@ -2001,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M26" s="1">
         <v>5</v>
@@ -2012,10 +2012,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D27" s="1">
         <v>8337</v>
@@ -2053,16 +2053,16 @@
         <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>5560</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
@@ -2094,19 +2094,19 @@
         <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>8110</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="1">
         <v>9</v>
@@ -2135,22 +2135,22 @@
         <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1">
         <v>3229</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="1">
         <v>12</v>
@@ -2176,10 +2176,10 @@
         <v>101</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D31" s="1">
         <v>7100</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
@@ -2217,19 +2217,19 @@
         <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1">
         <v>3519</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32" s="1">
         <v>13</v>
@@ -2258,10 +2258,10 @@
         <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D33" s="1">
         <v>11091</v>
@@ -2288,7 +2288,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M33" s="1">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1">
         <v>162</v>
@@ -2340,10 +2340,10 @@
         <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D35" s="1">
         <v>7120</v>
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" s="1">
         <v>13</v>
@@ -2381,19 +2381,19 @@
         <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="1">
         <v>121</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -2422,16 +2422,16 @@
         <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1">
         <v>31011</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1">
         <v>4</v>
@@ -2463,16 +2463,16 @@
         <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D38" s="1">
         <v>7171</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="1">
         <v>6</v>
@@ -2504,19 +2504,19 @@
         <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D39" s="1">
         <v>3900</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G39" s="1">
         <v>13</v>
@@ -2545,19 +2545,19 @@
         <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1">
         <v>1415</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G40" s="1">
         <v>2</v>
@@ -2586,10 +2586,10 @@
         <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D41" s="1">
         <v>4040</v>
@@ -2598,13 +2598,13 @@
         <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="2">
         <v>45</v>
@@ -2616,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M41" s="1">
         <v>1</v>
@@ -2627,19 +2627,19 @@
         <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D42" s="1">
         <v>2590</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -2668,10 +2668,10 @@
         <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D43" s="1">
         <v>19579</v>
@@ -2709,10 +2709,10 @@
         <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D44" s="1">
         <v>1042</v>
@@ -2721,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G44" s="1">
         <v>16</v>
@@ -2750,10 +2750,10 @@
         <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>146</v>
@@ -2791,10 +2791,10 @@
         <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D46" s="1">
         <v>8938</v>
@@ -2803,13 +2803,13 @@
         <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G46" s="1">
         <v>2</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I46" s="1">
         <v>48</v>
@@ -2832,16 +2832,16 @@
         <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D47" s="1">
         <v>2441</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
@@ -2862,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M47" s="1">
         <v>2</v>
@@ -2873,10 +2873,10 @@
         <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D48" s="1">
         <v>9650</v>
@@ -2914,7 +2914,7 @@
         <v>144</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="1">
@@ -2929,10 +2929,10 @@
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K49" s="1">
         <v>3</v>
@@ -2949,10 +2949,10 @@
         <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="1">
         <v>2330</v>
@@ -2990,10 +2990,10 @@
         <v>1510</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D51" s="1">
         <v>508</v>
@@ -3002,7 +3002,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G51" s="1">
         <v>13</v>
@@ -3020,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M51" s="1">
         <v>1</v>
@@ -3031,16 +3031,16 @@
         <v>1520</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D52" s="1">
         <v>8283</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" s="1">
         <v>6</v>
@@ -3072,10 +3072,10 @@
         <v>1530</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1">
         <v>2492</v>
@@ -3113,10 +3113,10 @@
         <v>1540</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D54" s="1">
         <v>9004</v>
@@ -3154,10 +3154,10 @@
         <v>1550</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D55" s="1">
         <v>4121</v>
@@ -3166,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="1">
         <v>16</v>
@@ -3195,25 +3195,25 @@
         <v>151</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1">
         <v>3212</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="I56" s="1">
         <v>175</v>
@@ -3225,7 +3225,7 @@
         <v>5</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
@@ -3236,10 +3236,10 @@
         <v>152</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1">
         <v>3984</v>
@@ -3248,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M57" s="1">
         <v>2</v>
@@ -3277,10 +3277,10 @@
         <v>153</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D58" s="1">
         <v>2149</v>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M58" s="1">
         <v>3</v>
@@ -3318,16 +3318,16 @@
         <v>154</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="1">
         <v>505</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M59" s="1">
         <v>4</v>
@@ -3359,10 +3359,10 @@
         <v>155</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D60" s="1">
         <v>8450</v>
@@ -3371,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G60" s="1">
         <v>9</v>
@@ -3389,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M60" s="1">
         <v>5</v>

--- a/db/东方M-1漫才统计表.xlsx
+++ b/db/东方M-1漫才统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\东JO共荣\东方\M-1\新建文件夹\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4A52CE-606D-4D75-932A-72FD8406AA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D044E6A-7E1D-4DE9-9616-3A40A7993010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4F54570-192A-490C-A976-F5082225062F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="129">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3265,8 +3265,8 @@
       <c r="K57" s="1">
         <v>3</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>10</v>
+      <c r="L57" s="1">
+        <v>4</v>
       </c>
       <c r="M57" s="1">
         <v>2</v>
@@ -3306,8 +3306,8 @@
       <c r="K58" s="1">
         <v>2</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>10</v>
+      <c r="L58" s="1">
+        <v>3</v>
       </c>
       <c r="M58" s="1">
         <v>3</v>
@@ -3347,8 +3347,8 @@
       <c r="K59" s="1">
         <v>1</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>10</v>
+      <c r="L59" s="1">
+        <v>1</v>
       </c>
       <c r="M59" s="1">
         <v>4</v>
@@ -3388,8 +3388,8 @@
       <c r="K60" s="1">
         <v>4</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>10</v>
+      <c r="L60" s="1">
+        <v>2</v>
       </c>
       <c r="M60" s="1">
         <v>5</v>
